--- a/output/1Y_P100_1VAL-D.xlsx
+++ b/output/1Y_P100_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G2" s="1">
-        <v>546.9083000000001</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1531</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2846</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1531</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.485</v>
       </c>
+      <c r="E3" s="1">
+        <v>546.9083000000001</v>
+      </c>
       <c r="F3" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G3" s="1">
-        <v>1153.5204</v>
-      </c>
       <c r="H3" s="1">
-        <v>18917.2731</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3382</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2846</v>
+      </c>
+      <c r="M3" s="1">
         <v>1.538</v>
       </c>
-      <c r="L3" s="1">
-        <v>757.0305</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9242.969499999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>757.0305</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19674.3036</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0137</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E4" s="1">
+        <v>1153.5204</v>
+      </c>
       <c r="F4" s="1">
-        <v>593.5089</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1747.0293</v>
+        <v>589.0496000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>29504.5288</v>
+        <v>19481.1139</v>
       </c>
       <c r="I4" s="1">
-        <v>30075.7031</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2153</v>
+        <v>19481.1139</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3382</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>681.3275</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30185.8563</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0172</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.414</v>
       </c>
+      <c r="E5" s="1">
+        <v>1742.57</v>
+      </c>
       <c r="F5" s="1">
-        <v>578.5979</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2325.6271</v>
+        <v>574.2506</v>
       </c>
       <c r="H5" s="1">
-        <v>40288.4663</v>
+        <v>30187.7593</v>
       </c>
       <c r="I5" s="1">
-        <v>40151.4061</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2648</v>
+        <v>30187.7593</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.216</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>605.6244</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40894.0907</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0176</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E6" s="1">
+        <v>2316.8206</v>
+      </c>
       <c r="F6" s="1">
-        <v>550.6631</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2876.2902</v>
+        <v>546.5257</v>
       </c>
       <c r="H6" s="1">
-        <v>52355.6725</v>
+        <v>42171.9264</v>
       </c>
       <c r="I6" s="1">
-        <v>50227.1092</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4625</v>
+        <v>42171.9264</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.265</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>529.9213999999999</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52885.5939</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0391</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.699</v>
       </c>
+      <c r="E7" s="1">
+        <v>2863.3463</v>
+      </c>
       <c r="F7" s="1">
-        <v>569.2809</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3445.5711</v>
+        <v>565.0037</v>
       </c>
       <c r="H7" s="1">
-        <v>60666.86</v>
+        <v>50415.5111</v>
       </c>
       <c r="I7" s="1">
-        <v>60302.8122</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5015</v>
+        <v>50415.5111</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.4621</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>454.2183</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61121.0783</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0281</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E8" s="1">
+        <v>3428.35</v>
+      </c>
       <c r="F8" s="1">
-        <v>557.9171</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4003.4882</v>
+        <v>553.7252</v>
       </c>
       <c r="H8" s="1">
-        <v>71925.86810000001</v>
+        <v>61593.05</v>
       </c>
       <c r="I8" s="1">
-        <v>70378.5153</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5793</v>
+        <v>61593.05</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.5011</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>378.5153</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72304.3833</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0166</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.696</v>
       </c>
+      <c r="E9" s="1">
+        <v>3982.0752</v>
+      </c>
       <c r="F9" s="1">
-        <v>538.9229</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4542.4111</v>
+        <v>534.8738</v>
       </c>
       <c r="H9" s="1">
-        <v>84484.7586</v>
+        <v>74063.01420000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80454.21829999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7118</v>
+        <v>74063.01420000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5788</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>302.8122</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>84787.5708</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0302</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E10" s="1">
+        <v>4516.9489</v>
+      </c>
       <c r="F10" s="1">
-        <v>563.8208</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5106.2319</v>
+        <v>559.5846</v>
       </c>
       <c r="H10" s="1">
-        <v>90777.0589</v>
+        <v>80300.96309999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90529.92140000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7293</v>
+        <v>80300.96309999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7111</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>227.1092</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91004.1681</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0399</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E11" s="1">
+        <v>5076.5335</v>
+      </c>
       <c r="F11" s="1">
-        <v>573.7741</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5680.006</v>
+        <v>569.4631000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>99226.2972</v>
+        <v>88683.99430000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100605.6244</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7122</v>
+        <v>88683.99430000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7286</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>151.4061</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>99377.70329999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0161</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E12" s="1">
+        <v>5645.9966</v>
+      </c>
       <c r="F12" s="1">
-        <v>578.1364</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6258.1424</v>
+        <v>573.7926</v>
       </c>
       <c r="H12" s="1">
-        <v>108500.544</v>
+        <v>97887.4662</v>
       </c>
       <c r="I12" s="1">
-        <v>110681.3275</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.686</v>
+        <v>97887.4662</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7117</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>75.70310000000001</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108576.247</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E13" s="1">
+        <v>6219.7892</v>
+      </c>
       <c r="F13" s="1">
-        <v>572.7044</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6830.8468</v>
+        <v>568.4014</v>
       </c>
       <c r="H13" s="1">
-        <v>119553.4808</v>
+        <v>108858.7507</v>
       </c>
       <c r="I13" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6782</v>
+        <v>108858.7507</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6855</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10075.7031</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>119553.4808</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E14" s="1">
+        <v>6788.1906</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6830.8468</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6219.7892</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109898.7699</v>
       </c>
       <c r="I14" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6782</v>
+        <v>109898.7699</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2046</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110589.3605</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110589.3605</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110589.3605</v>
+        <v>100696.5213</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1464</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.2846</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>546.9083000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1531</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2846</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1531</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.485</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>546.9083000000001</v>
       </c>
       <c r="F3" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1153.5204</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>18917.2731</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3382</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2846</v>
+      </c>
+      <c r="M3" s="1">
         <v>1.538</v>
       </c>
-      <c r="L3" s="1">
-        <v>757.0305</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9242.969499999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>757.0305</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19674.3036</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0137</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.9765</v>
       </c>
       <c r="E4" s="1">
+        <v>1153.5204</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.0496000000001</v>
+      </c>
+      <c r="G4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1">
-        <v>622.8468</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1776.3672</v>
-      </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19481.1139</v>
       </c>
       <c r="I4" s="1">
-        <v>30573.7589</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2114</v>
+        <v>19481.1139</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3382</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10573.7589</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>183.2716</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30183.2716</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0172</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.414</v>
       </c>
       <c r="E5" s="1">
+        <v>1742.57</v>
+      </c>
+      <c r="F5" s="1">
+        <v>566.4056</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>532.6084</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2308.9756</v>
-      </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30187.7593</v>
       </c>
       <c r="I5" s="1">
-        <v>39848.6008</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2581</v>
+        <v>30187.7593</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29863.3871</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1376</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9274.841899999999</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>908.4297</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40908.4297</v>
+        <v>-9863.3871</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.2974</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2308.9756</v>
       </c>
       <c r="F6" s="1">
         <v>437.8999</v>
       </c>
       <c r="G6" s="1">
-        <v>2746.8754</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42029.1277</v>
       </c>
       <c r="I6" s="1">
-        <v>47861.0298</v>
+        <v>136.6129</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4238</v>
+        <v>42165.7406</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37875.8161</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.4037</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8012.429</v>
       </c>
-      <c r="O6" s="1">
-        <v>2896.0007</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52896.0007</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.039</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.699</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2746.8754</v>
       </c>
       <c r="F7" s="1">
         <v>660.8214</v>
       </c>
       <c r="G7" s="1">
-        <v>3407.6969</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48364.7851</v>
       </c>
       <c r="I7" s="1">
-        <v>59556.9081</v>
+        <v>2124.1839</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4772</v>
+        <v>50488.969</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49571.6944</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0466</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11695.8783</v>
       </c>
-      <c r="O7" s="1">
-        <v>1200.1224</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61200.1224</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.027</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.0595</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3407.6969</v>
       </c>
       <c r="F8" s="1">
         <v>488.595</v>
       </c>
       <c r="G8" s="1">
-        <v>3896.2918</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61222.0001</v>
       </c>
       <c r="I8" s="1">
-        <v>68380.6894</v>
+        <v>428.3056</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5502</v>
+        <v>61650.3057</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58395.4757</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1363</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8823.781300000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>2376.3411</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72376.34110000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0165</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.696</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3896.2918</v>
       </c>
       <c r="F9" s="1">
         <v>404.9916</v>
       </c>
       <c r="G9" s="1">
-        <v>4301.2834</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72467.52159999999</v>
       </c>
       <c r="I9" s="1">
-        <v>75952.4114</v>
+        <v>1604.5243</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6581</v>
+        <v>74072.046</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65967.1977</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9308</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7571.7221</v>
       </c>
-      <c r="O9" s="1">
-        <v>4804.6191</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84804.6191</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0295</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.8704</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4301.2834</v>
       </c>
       <c r="F10" s="1">
         <v>761.2388</v>
       </c>
       <c r="G10" s="1">
-        <v>5062.5221</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>76466.9258</v>
       </c>
       <c r="I10" s="1">
-        <v>89556.0524</v>
+        <v>4032.8023</v>
       </c>
       <c r="J10" s="1">
-        <v>17.69</v>
+        <v>80499.72809999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79570.83869999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.4993</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13603.641</v>
       </c>
-      <c r="O10" s="1">
-        <v>1200.9781</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91200.97809999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.038</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.5604</v>
       </c>
       <c r="E11" s="1">
+        <v>5062.5221</v>
+      </c>
+      <c r="F11" s="1">
+        <v>593.9023</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>637.8544000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5700.3765</v>
-      </c>
       <c r="H11" s="1">
-        <v>99582.1577</v>
+        <v>88439.22440000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100757.0305</v>
+        <v>429.1613</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6755</v>
+        <v>88868.3857</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7777</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11200.9781</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>99582.1577</v>
+        <v>-10429.1613</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.016</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.4279</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5656.4244</v>
       </c>
       <c r="F12" s="1">
         <v>573.7926</v>
       </c>
       <c r="G12" s="1">
-        <v>6274.1691</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>108778.4072</v>
+        <v>98068.2582</v>
       </c>
       <c r="I12" s="1">
-        <v>110757.0305</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6529</v>
+        <v>98068.2582</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.679</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>108778.4072</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.5932</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6230.217</v>
       </c>
       <c r="F13" s="1">
         <v>568.4014</v>
       </c>
       <c r="G13" s="1">
-        <v>6842.5706</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>119758.6698</v>
+        <v>109041.2581</v>
       </c>
       <c r="I13" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6479</v>
+        <v>109041.2581</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6559</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119758.6698</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0083</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>16.2741</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6798.6184</v>
       </c>
       <c r="F14" s="1">
-        <v>-6842.5706</v>
+        <v>-6798.6184</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110067.5929</v>
       </c>
       <c r="I14" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6479</v>
+        <v>110067.5929</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1798</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110779.1645</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110779.1645</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110779.1645</v>
+        <v>110067.5929</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1463</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.2846</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>546.9083000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1531</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2846</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1531</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.485</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>546.9083000000001</v>
       </c>
       <c r="F3" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1153.5204</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>18917.2731</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3382</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2846</v>
+      </c>
+      <c r="M3" s="1">
         <v>1.538</v>
       </c>
-      <c r="L3" s="1">
-        <v>757.0305</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9242.969499999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>757.0305</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19674.3036</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0137</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.9765</v>
       </c>
       <c r="E4" s="1">
+        <v>1153.5204</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.0496000000001</v>
+      </c>
+      <c r="G4" s="1">
         <v>30150.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>631.7435</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1785.2638</v>
-      </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>19481.1139</v>
       </c>
       <c r="I4" s="1">
-        <v>30724.7927</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.2102</v>
+        <v>19481.1139</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3382</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10724.7927</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>32.2378</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30182.4878</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0171</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.414</v>
       </c>
       <c r="E5" s="1">
+        <v>1742.57</v>
+      </c>
+      <c r="F5" s="1">
+        <v>574.2506</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>541.0868</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2326.3507</v>
-      </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30187.7593</v>
       </c>
       <c r="I5" s="1">
-        <v>40147.2787</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2576</v>
+        <v>30187.7593</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.216</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9422.486000000001</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>609.7518</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40910.753</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0181</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.2974</v>
       </c>
       <c r="E6" s="1">
+        <v>2316.8206</v>
+      </c>
+      <c r="F6" s="1">
+        <v>457.6613</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>448.1312</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2774.4819</v>
-      </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42171.9264</v>
       </c>
       <c r="I6" s="1">
-        <v>48346.9144</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4256</v>
+        <v>42171.9264</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38374.0119</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.5632</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-8199.635700000001</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>2410.1161</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52912.6224</v>
+        <v>-8374.0119</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0393</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.699</v>
       </c>
       <c r="E7" s="1">
+        <v>2774.4819</v>
+      </c>
+      <c r="F7" s="1">
+        <v>656.8726</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>676.0962</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3450.5781</v>
-      </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>48850.8572</v>
       </c>
       <c r="I7" s="1">
-        <v>60313.1416</v>
+        <v>1625.9881</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4791</v>
+        <v>50476.8453</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0214</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11966.2272</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>443.8889</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61198.9077</v>
+        <v>-11625.9881</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0272</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.0595</v>
       </c>
       <c r="E8" s="1">
+        <v>3431.3545</v>
+      </c>
+      <c r="F8" s="1">
+        <v>523.8712</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>504.6476</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3955.2257</v>
-      </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61647.0281</v>
       </c>
       <c r="I8" s="1">
-        <v>69426.82490000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5532</v>
+        <v>61647.0281</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59460.8525</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3287</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-9113.683300000001</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1330.2056</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72388.99950000001</v>
+        <v>-9460.852500000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0167</v>
+        <v>0.0193</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.696</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3955.2257</v>
       </c>
       <c r="F9" s="1">
         <v>422.0876</v>
       </c>
       <c r="G9" s="1">
-        <v>4377.3133</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73563.63830000001</v>
       </c>
       <c r="I9" s="1">
-        <v>77318.1747</v>
+        <v>539.1475</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6634</v>
+        <v>74102.7858</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67352.2023</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.0287</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7891.3498</v>
       </c>
-      <c r="O9" s="1">
-        <v>3438.8558</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84852.9436</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0299</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.8704</v>
       </c>
       <c r="E10" s="1">
+        <v>4377.3133</v>
+      </c>
+      <c r="F10" s="1">
+        <v>707.7512</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>752.0176</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5129.3309</v>
-      </c>
       <c r="H10" s="1">
-        <v>91187.7065</v>
+        <v>77818.56269999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90757.03049999999</v>
+        <v>2647.7977</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6937</v>
+        <v>80466.36040000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.2761</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-13438.8558</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91187.7065</v>
+        <v>-12647.7977</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0386</v>
+        <v>-0.0432</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.5604</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5085.0645</v>
       </c>
       <c r="F11" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5698.794</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99554.5126</v>
+        <v>88833.02650000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100757.0305</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6804</v>
+        <v>88833.02650000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6989</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99554.5126</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0161</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.4279</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5654.5276</v>
       </c>
       <c r="F12" s="1">
         <v>573.7926</v>
       </c>
       <c r="G12" s="1">
-        <v>6272.5866</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>108750.9708</v>
+        <v>98035.3731</v>
       </c>
       <c r="I12" s="1">
-        <v>110757.0305</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6573</v>
+        <v>98035.3731</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6849</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>108750.9708</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.5932</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6228.3202</v>
       </c>
       <c r="F13" s="1">
         <v>568.4014</v>
       </c>
       <c r="G13" s="1">
-        <v>6840.9881</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>119730.9731</v>
+        <v>109008.0609</v>
       </c>
       <c r="I13" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.652</v>
+        <v>109008.0609</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6613</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119730.9731</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0083</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>16.2741</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6796.7217</v>
       </c>
       <c r="F14" s="1">
-        <v>-6840.9881</v>
+        <v>-6796.7217</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110036.8849</v>
       </c>
       <c r="I14" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.652</v>
+        <v>110036.8849</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1843</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110753.5445</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110753.5445</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110753.5445</v>
+        <v>110036.8849</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1463</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.2846</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>546.9083000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1531</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2846</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1531</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.485</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>546.9083000000001</v>
       </c>
       <c r="F3" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1153.5204</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>18917.2731</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3382</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2846</v>
+      </c>
+      <c r="M3" s="1">
         <v>1.538</v>
       </c>
-      <c r="L3" s="1">
-        <v>757.0305</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9242.969499999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>757.0305</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19674.3036</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0137</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.9765</v>
       </c>
       <c r="E4" s="1">
+        <v>1153.5204</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.0496000000001</v>
+      </c>
+      <c r="G4" s="1">
         <v>30301</v>
       </c>
-      <c r="F4" s="1">
-        <v>633.6424</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1787.1628</v>
-      </c>
       <c r="H4" s="1">
-        <v>30182.3205</v>
+        <v>19481.1139</v>
       </c>
       <c r="I4" s="1">
-        <v>30757.0305</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.21</v>
+        <v>19481.1139</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3382</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10757.0305</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30182.3205</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0171</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.414</v>
       </c>
       <c r="E5" s="1">
+        <v>1742.57</v>
+      </c>
+      <c r="F5" s="1">
+        <v>574.2506</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>556.6789</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2343.8417</v>
-      </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30187.7593</v>
       </c>
       <c r="I5" s="1">
-        <v>40451.0361</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2584</v>
+        <v>30187.7593</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.216</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9694.0056</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>305.9944</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40910.0044</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0181</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.2974</v>
       </c>
       <c r="E6" s="1">
+        <v>2316.8206</v>
+      </c>
+      <c r="F6" s="1">
+        <v>485.5445</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>458.5234</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2802.3651</v>
-      </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42171.9264</v>
       </c>
       <c r="I6" s="1">
-        <v>48840.822</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4284</v>
+        <v>42171.9264</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38884.2018</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7834</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-8389.785900000001</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1916.2085</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52926.2586</v>
+        <v>-8884.201800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0396</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.699</v>
       </c>
       <c r="E7" s="1">
+        <v>2802.3651</v>
+      </c>
+      <c r="F7" s="1">
+        <v>628.0467</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>673.2702</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3475.6352</v>
-      </c>
       <c r="H7" s="1">
-        <v>61196.2045</v>
+        <v>49341.8022</v>
       </c>
       <c r="I7" s="1">
-        <v>60757.0305</v>
+        <v>1115.7982</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4808</v>
+        <v>50457.6003</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8421</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11916.2085</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61196.2045</v>
+        <v>-11115.7982</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0275</v>
+        <v>-0.0329</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.0595</v>
       </c>
       <c r="E8" s="1">
+        <v>3430.4117</v>
+      </c>
+      <c r="F8" s="1">
+        <v>553.7252</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>539.5131</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4015.1483</v>
-      </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>61630.0913</v>
       </c>
       <c r="I8" s="1">
-        <v>70500.3677</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5586</v>
+        <v>61630.0913</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4906</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-9743.3372</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>256.6628</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>72392.01489999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0168</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.696</v>
       </c>
       <c r="E9" s="1">
+        <v>3984.1369</v>
+      </c>
+      <c r="F9" s="1">
+        <v>470.7402</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>439.7288</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4454.8772</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74101.3612</v>
       </c>
       <c r="I9" s="1">
-        <v>78721.53750000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6709</v>
+        <v>74101.3612</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68800.9592</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2687</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-8221.1698</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2035.493</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>84892.1986</v>
+        <v>-8800.959199999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0303</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.8704</v>
       </c>
       <c r="E10" s="1">
+        <v>4454.8772</v>
+      </c>
+      <c r="F10" s="1">
+        <v>626.681</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>673.4876</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5128.3648</v>
-      </c>
       <c r="H10" s="1">
-        <v>91170.53019999999</v>
+        <v>79197.46950000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90757.03049999999</v>
+        <v>1199.0408</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6971</v>
+        <v>80396.51029999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9578</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-12035.493</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91170.53019999999</v>
+        <v>-11199.0408</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0392</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.5604</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5081.5582</v>
       </c>
       <c r="F11" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5697.8279</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>99537.6342</v>
+        <v>88771.7726</v>
       </c>
       <c r="I11" s="1">
-        <v>100757.0305</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6834</v>
+        <v>88771.7726</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7111</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99537.6342</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0161</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.4279</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5651.0213</v>
       </c>
       <c r="F12" s="1">
         <v>573.7926</v>
       </c>
       <c r="G12" s="1">
-        <v>6271.6205</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108734.2199</v>
+        <v>97974.5818</v>
       </c>
       <c r="I12" s="1">
-        <v>110757.0305</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.66</v>
+        <v>97974.5818</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6959</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>108734.2199</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.5932</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6224.8139</v>
       </c>
       <c r="F13" s="1">
         <v>568.4014</v>
       </c>
       <c r="G13" s="1">
-        <v>6840.0219</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119714.0632</v>
+        <v>108946.6928</v>
       </c>
       <c r="I13" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6545</v>
+        <v>108946.6928</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6712</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119714.0632</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0083</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.2741</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6793.2153</v>
       </c>
       <c r="F14" s="1">
-        <v>-6840.0219</v>
+        <v>-6793.2153</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109980.1181</v>
       </c>
       <c r="I14" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6545</v>
+        <v>109980.1181</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1926</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110737.9025</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110737.9025</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110737.9025</v>
+        <v>109980.1181</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1463</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.2846</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>546.9083000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1531</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2846</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1531</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.485</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>546.9083000000001</v>
       </c>
       <c r="F3" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1153.5204</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>18917.2731</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3382</v>
+        <v>8969.077799999999</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2846</v>
+      </c>
+      <c r="M3" s="1">
         <v>1.538</v>
       </c>
-      <c r="L3" s="1">
-        <v>757.0305</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9242.969499999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>757.0305</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19674.3036</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0137</v>
+        <v>-0.1031</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.9765</v>
       </c>
       <c r="E4" s="1">
+        <v>1153.5204</v>
+      </c>
+      <c r="F4" s="1">
+        <v>589.0496000000001</v>
+      </c>
+      <c r="G4" s="1">
         <v>30452.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>633.6424</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1787.1628</v>
-      </c>
       <c r="H4" s="1">
-        <v>30182.3205</v>
+        <v>19481.1139</v>
       </c>
       <c r="I4" s="1">
-        <v>30757.0305</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.21</v>
+        <v>19481.1139</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3382</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10757.0305</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30182.3205</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0171</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.414</v>
       </c>
       <c r="E5" s="1">
+        <v>1742.57</v>
+      </c>
+      <c r="F5" s="1">
+        <v>574.2506</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>574.2862</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2361.449</v>
-      </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30187.7593</v>
       </c>
       <c r="I5" s="1">
-        <v>40757.6498</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2596</v>
+        <v>30187.7593</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.216</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000.6193</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>-0.6193</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40908.4144</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0181</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.2974</v>
       </c>
       <c r="E6" s="1">
+        <v>2316.8206</v>
+      </c>
+      <c r="F6" s="1">
+        <v>513.7065</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>469.0781</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2830.5271</v>
-      </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42171.9264</v>
       </c>
       <c r="I6" s="1">
-        <v>49340.5595</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.4316</v>
+        <v>42171.9264</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39399.4936</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.0058</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-8582.9097</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1416.471</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52939.1403</v>
+        <v>-9399.4936</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0399</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.699</v>
       </c>
       <c r="E7" s="1">
+        <v>2830.5271</v>
+      </c>
+      <c r="F7" s="1">
+        <v>598.9325</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>645.0348</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3475.5619</v>
-      </c>
       <c r="H7" s="1">
-        <v>61194.9133</v>
+        <v>49837.6565</v>
       </c>
       <c r="I7" s="1">
-        <v>60757.0305</v>
+        <v>600.5064</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4812</v>
+        <v>50438.1629</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6646</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11416.471</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61194.9133</v>
+        <v>-10600.5064</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0277</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.0595</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3429.4596</v>
       </c>
       <c r="F8" s="1">
         <v>553.7252</v>
       </c>
       <c r="G8" s="1">
-        <v>4029.2871</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72389.3658</v>
+        <v>61612.9851</v>
       </c>
       <c r="I8" s="1">
-        <v>70757.03049999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5607</v>
+        <v>61612.9851</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4955</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72389.3658</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0168</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.696</v>
       </c>
       <c r="E9" s="1">
+        <v>3983.1848</v>
+      </c>
+      <c r="F9" s="1">
+        <v>534.8738</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>504.7168</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4534.0039</v>
-      </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>74083.652</v>
       </c>
       <c r="I9" s="1">
-        <v>80193.2153</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6871</v>
+        <v>74083.652</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5739</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-9436.184800000001</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>563.8152</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>84892.2062</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0304</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.8704</v>
       </c>
       <c r="E10" s="1">
+        <v>4518.0585</v>
+      </c>
+      <c r="F10" s="1">
+        <v>559.5846</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>591.1348</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5125.1386</v>
-      </c>
       <c r="H10" s="1">
-        <v>91113.1773</v>
+        <v>80320.6894</v>
       </c>
       <c r="I10" s="1">
-        <v>90757.03049999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7082</v>
+        <v>80320.6894</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7067</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10563.8152</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>91113.1773</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0398</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.5604</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5077.6431</v>
       </c>
       <c r="F11" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5694.6018</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99481.27589999999</v>
+        <v>88703.3786</v>
       </c>
       <c r="I11" s="1">
-        <v>100757.0305</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6934</v>
+        <v>88703.3786</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.7248</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99481.27589999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0161</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.4279</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5647.1062</v>
       </c>
       <c r="F12" s="1">
         <v>573.7926</v>
       </c>
       <c r="G12" s="1">
-        <v>6268.3944</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108678.2871</v>
+        <v>97906.7041</v>
       </c>
       <c r="I12" s="1">
-        <v>110757.0305</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6691</v>
+        <v>97906.7041</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.7082</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>108678.2871</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.5932</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6220.8988</v>
       </c>
       <c r="F13" s="1">
         <v>568.4014</v>
       </c>
       <c r="G13" s="1">
-        <v>6836.7958</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>119657.5997</v>
+        <v>108878.1711</v>
       </c>
       <c r="I13" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6628</v>
+        <v>108878.1711</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6823</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>119657.5997</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0083</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.2741</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6789.3002</v>
       </c>
       <c r="F14" s="1">
-        <v>-6836.7958</v>
+        <v>-6789.3002</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109916.7342</v>
       </c>
       <c r="I14" s="1">
-        <v>120757.0305</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6628</v>
+        <v>109916.7342</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.202</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>110685.6726</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>110685.6726</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>110685.6726</v>
+        <v>109916.7342</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1463</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.2302</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.6782</v>
+        <v>16.2046</v>
       </c>
       <c r="D3" s="1">
-        <v>17.6479</v>
+        <v>16.1798</v>
       </c>
       <c r="E3" s="1">
-        <v>17.652</v>
+        <v>16.1843</v>
       </c>
       <c r="F3" s="1">
-        <v>17.6545</v>
+        <v>16.1926</v>
       </c>
       <c r="G3" s="1">
-        <v>17.6628</v>
+        <v>16.202</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1037</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1225</v>
+        <v>-0.1195</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1198</v>
+        <v>-0.117</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1199</v>
+        <v>-0.1174</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.12</v>
+        <v>-0.1182</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1206</v>
+        <v>-0.1192</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1538</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1626</v>
+        <v>0.155</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1619</v>
+        <v>0.154</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1623</v>
+        <v>0.1544</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1627</v>
+        <v>0.1547</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1629</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.8065</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.8779</v>
+        <v>-0.9022</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.8653999999999999</v>
+        <v>-0.892</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.864</v>
+        <v>-0.8915999999999999</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.8626</v>
+        <v>-0.8952</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.8649</v>
+        <v>-0.9002</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1422</v>
+        <v>-0.2827</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1412</v>
+        <v>-0.1507</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1406</v>
+        <v>-0.1505</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1402</v>
+        <v>-0.1508</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1405</v>
+        <v>-0.1514</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>757.0305</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>757.0305</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>757.0305</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>757.0305</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>757.0305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
